--- a/sampledata.xlsx
+++ b/sampledata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c34699cfb1243bf7/blog/AgentsDemo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{4C0AADEE-A30E-40DD-B6E5-821708D14669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A3A0545-8B08-4673-91D9-AF33FAFF0F3B}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{4C0AADEE-A30E-40DD-B6E5-821708D14669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9F276B5-81A3-46E8-B1D5-EBD34E993C95}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-30" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25600" yWindow="0" windowWidth="24820" windowHeight="13760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,33 +37,6 @@
     <t>Religious_Affiliation</t>
   </si>
   <si>
-    <t>Cost_In_State_On_Campus</t>
-  </si>
-  <si>
-    <t>SAT_Reading_25th</t>
-  </si>
-  <si>
-    <t>SAT_Reading_50th</t>
-  </si>
-  <si>
-    <t>SAT_Reading_75th</t>
-  </si>
-  <si>
-    <t>SAT_Math_25th</t>
-  </si>
-  <si>
-    <t>SAT_Math_50th</t>
-  </si>
-  <si>
-    <t>SAT_Math_75th</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
     <t>Alabama A &amp; M University</t>
   </si>
   <si>
@@ -674,6 +647,33 @@
   </si>
   <si>
     <t>91711</t>
+  </si>
+  <si>
+    <t>tuition</t>
+  </si>
+  <si>
+    <t>LONGITUDE</t>
+  </si>
+  <si>
+    <t>LATITUDE</t>
+  </si>
+  <si>
+    <t>SAT_Math75</t>
+  </si>
+  <si>
+    <t>SAT_Math50</t>
+  </si>
+  <si>
+    <t>SAT_Math25</t>
+  </si>
+  <si>
+    <t>SAT_Reading25</t>
+  </si>
+  <si>
+    <t>SAT_Reading50</t>
+  </si>
+  <si>
+    <t>SAT_Reading75</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1044,7 @@
   <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1066,31 +1066,31 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>209</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>215</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>216</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>217</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>214</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>213</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>212</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -1098,13 +1098,13 @@
         <v>100654</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E2">
         <v>-2</v>
@@ -1142,13 +1142,13 @@
         <v>100663</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E3">
         <v>-2</v>
@@ -1186,13 +1186,13 @@
         <v>100706</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E4">
         <v>-2</v>
@@ -1230,13 +1230,13 @@
         <v>100724</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E5">
         <v>-2</v>
@@ -1274,13 +1274,13 @@
         <v>100751</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" t="s">
         <v>114</v>
-      </c>
-      <c r="D6" t="s">
-        <v>123</v>
       </c>
       <c r="E6">
         <v>-2</v>
@@ -1318,13 +1318,13 @@
         <v>100830</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E7">
         <v>-2</v>
@@ -1362,13 +1362,13 @@
         <v>100858</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E8">
         <v>-2</v>
@@ -1406,13 +1406,13 @@
         <v>100937</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E9">
         <v>71</v>
@@ -1450,13 +1450,13 @@
         <v>101189</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E10">
         <v>74</v>
@@ -1494,13 +1494,13 @@
         <v>101365</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E11">
         <v>-2</v>
@@ -1517,13 +1517,13 @@
         <v>101435</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E12">
         <v>71</v>
@@ -1561,13 +1561,13 @@
         <v>101453</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E13">
         <v>74</v>
@@ -1587,13 +1587,13 @@
         <v>101480</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E14">
         <v>-2</v>
@@ -1631,13 +1631,13 @@
         <v>101587</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E15">
         <v>-2</v>
@@ -1675,13 +1675,13 @@
         <v>101648</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E16">
         <v>-2</v>
@@ -1701,13 +1701,13 @@
         <v>101693</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E17">
         <v>75</v>
@@ -1727,13 +1727,13 @@
         <v>101709</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E18">
         <v>-2</v>
@@ -1753,13 +1753,13 @@
         <v>101879</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D19" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E19">
         <v>-2</v>
@@ -1779,13 +1779,13 @@
         <v>101912</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E20">
         <v>95</v>
@@ -1805,13 +1805,13 @@
         <v>102049</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E21">
         <v>54</v>
@@ -1849,13 +1849,13 @@
         <v>102094</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E22">
         <v>-2</v>
@@ -1893,13 +1893,13 @@
         <v>102234</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E23">
         <v>30</v>
@@ -1937,13 +1937,13 @@
         <v>102270</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D24" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E24">
         <v>66</v>
@@ -1963,13 +1963,13 @@
         <v>102368</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E25">
         <v>-2</v>
@@ -2007,13 +2007,13 @@
         <v>102377</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D26" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E26">
         <v>-2</v>
@@ -2051,13 +2051,13 @@
         <v>102395</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E27">
         <v>-2</v>
@@ -2074,13 +2074,13 @@
         <v>102553</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D28" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E28">
         <v>-2</v>
@@ -2100,13 +2100,13 @@
         <v>102632</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D29" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E29">
         <v>-2</v>
@@ -2126,13 +2126,13 @@
         <v>102669</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D30" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E30">
         <v>71</v>
@@ -2152,13 +2152,13 @@
         <v>104151</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D31" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E31">
         <v>-2</v>
@@ -2178,13 +2178,13 @@
         <v>104179</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D32" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E32">
         <v>-2</v>
@@ -2222,13 +2222,13 @@
         <v>104586</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D33" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E33">
         <v>-2</v>
@@ -2266,13 +2266,13 @@
         <v>104717</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D34" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E34">
         <v>-2</v>
@@ -2292,13 +2292,13 @@
         <v>105330</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D35" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E35">
         <v>-2</v>
@@ -2318,13 +2318,13 @@
         <v>105589</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D36" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E36">
         <v>-2</v>
@@ -2344,13 +2344,13 @@
         <v>105899</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D37" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E37">
         <v>88</v>
@@ -2370,13 +2370,13 @@
         <v>106245</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D38" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E38">
         <v>-2</v>
@@ -2414,13 +2414,13 @@
         <v>106342</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D39" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E39">
         <v>66</v>
@@ -2440,13 +2440,13 @@
         <v>106397</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D40" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E40">
         <v>-2</v>
@@ -2484,13 +2484,13 @@
         <v>106412</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D41" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E41">
         <v>-2</v>
@@ -2528,13 +2528,13 @@
         <v>106458</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D42" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E42">
         <v>-2</v>
@@ -2572,13 +2572,13 @@
         <v>106467</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D43" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E43">
         <v>-2</v>
@@ -2616,13 +2616,13 @@
         <v>106546</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D44" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E44">
         <v>54</v>
@@ -2639,13 +2639,13 @@
         <v>106704</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D45" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E45">
         <v>-2</v>
@@ -2683,13 +2683,13 @@
         <v>106713</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D46" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E46">
         <v>54</v>
@@ -2727,13 +2727,13 @@
         <v>107044</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D47" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E47">
         <v>74</v>
@@ -2771,13 +2771,13 @@
         <v>107071</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D48" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E48">
         <v>-2</v>
@@ -2815,13 +2815,13 @@
         <v>107080</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D49" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E49">
         <v>71</v>
@@ -2859,13 +2859,13 @@
         <v>107141</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D50" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E50">
         <v>-2</v>
@@ -2903,13 +2903,13 @@
         <v>107512</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D51" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E51">
         <v>75</v>
@@ -2947,13 +2947,13 @@
         <v>107558</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D52" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E52">
         <v>66</v>
@@ -2991,13 +2991,13 @@
         <v>107585</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D53" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E53">
         <v>-2</v>
@@ -3014,13 +3014,13 @@
         <v>107877</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D54" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E54">
         <v>75</v>
@@ -3058,13 +3058,13 @@
         <v>107983</v>
       </c>
       <c r="B55" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D55" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E55">
         <v>-2</v>
@@ -3102,13 +3102,13 @@
         <v>108852</v>
       </c>
       <c r="B56" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D56" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E56">
         <v>-2</v>
@@ -3128,13 +3128,13 @@
         <v>108861</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D57" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E57">
         <v>52</v>
@@ -3154,13 +3154,13 @@
         <v>109651</v>
       </c>
       <c r="B58" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D58" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E58">
         <v>-2</v>
@@ -3177,13 +3177,13 @@
         <v>109785</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D59" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E59">
         <v>88</v>
@@ -3221,13 +3221,13 @@
         <v>110097</v>
       </c>
       <c r="B60" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D60" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E60">
         <v>88</v>
@@ -3265,13 +3265,13 @@
         <v>110361</v>
       </c>
       <c r="B61" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D61" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E61">
         <v>75</v>
@@ -3291,13 +3291,13 @@
         <v>110370</v>
       </c>
       <c r="B62" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D62" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E62">
         <v>-2</v>
@@ -3317,13 +3317,13 @@
         <v>110404</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D63" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E63">
         <v>-2</v>
@@ -3343,13 +3343,13 @@
         <v>110413</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D64" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="E64">
         <v>39</v>
@@ -3387,13 +3387,13 @@
         <v>110422</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D65" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E65">
         <v>-2</v>
@@ -3413,13 +3413,13 @@
         <v>110468</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D66" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E66">
         <v>-2</v>
@@ -3436,13 +3436,13 @@
         <v>110486</v>
       </c>
       <c r="B67" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D67" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E67">
         <v>-2</v>
@@ -3462,13 +3462,13 @@
         <v>110495</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D68" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E68">
         <v>-2</v>
@@ -3488,13 +3488,13 @@
         <v>110510</v>
       </c>
       <c r="B69" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D69" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E69">
         <v>-2</v>
@@ -3514,13 +3514,13 @@
         <v>110529</v>
       </c>
       <c r="B70" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D70" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E70">
         <v>-2</v>
@@ -3540,13 +3540,13 @@
         <v>110538</v>
       </c>
       <c r="B71" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D71" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E71">
         <v>-2</v>
@@ -3566,13 +3566,13 @@
         <v>110547</v>
       </c>
       <c r="B72" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D72" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E72">
         <v>-2</v>
@@ -3592,13 +3592,13 @@
         <v>110556</v>
       </c>
       <c r="B73" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D73" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E73">
         <v>-2</v>
@@ -3618,13 +3618,13 @@
         <v>110565</v>
       </c>
       <c r="B74" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D74" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E74">
         <v>-2</v>
@@ -3644,13 +3644,13 @@
         <v>110574</v>
       </c>
       <c r="B75" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D75" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E75">
         <v>-2</v>
@@ -3670,13 +3670,13 @@
         <v>110583</v>
       </c>
       <c r="B76" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D76" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E76">
         <v>-2</v>
@@ -3696,13 +3696,13 @@
         <v>110592</v>
       </c>
       <c r="B77" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D77" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E77">
         <v>-2</v>
@@ -3722,13 +3722,13 @@
         <v>110608</v>
       </c>
       <c r="B78" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D78" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E78">
         <v>-2</v>
@@ -3748,13 +3748,13 @@
         <v>110617</v>
       </c>
       <c r="B79" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D79" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E79">
         <v>-2</v>
@@ -3774,13 +3774,13 @@
         <v>110635</v>
       </c>
       <c r="B80" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D80" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E80">
         <v>-2</v>
@@ -3800,13 +3800,13 @@
         <v>110644</v>
       </c>
       <c r="B81" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D81" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E81">
         <v>-2</v>
@@ -3826,13 +3826,13 @@
         <v>110653</v>
       </c>
       <c r="B82" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D82" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E82">
         <v>-2</v>
@@ -3852,13 +3852,13 @@
         <v>110662</v>
       </c>
       <c r="B83" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D83" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E83">
         <v>-2</v>
@@ -3878,13 +3878,13 @@
         <v>110671</v>
       </c>
       <c r="B84" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D84" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E84">
         <v>-2</v>
@@ -3904,13 +3904,13 @@
         <v>110680</v>
       </c>
       <c r="B85" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D85" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E85">
         <v>-2</v>
@@ -3930,13 +3930,13 @@
         <v>110705</v>
       </c>
       <c r="B86" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D86" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E86">
         <v>-2</v>
@@ -3956,13 +3956,13 @@
         <v>110714</v>
       </c>
       <c r="B87" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D87" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="E87">
         <v>-2</v>
@@ -3982,13 +3982,13 @@
         <v>110918</v>
       </c>
       <c r="B88" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D88" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E88">
         <v>41</v>
@@ -4005,13 +4005,13 @@
         <v>111081</v>
       </c>
       <c r="B89" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D89" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E89">
         <v>-2</v>
@@ -4031,13 +4031,13 @@
         <v>111188</v>
       </c>
       <c r="B90" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D90" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E90">
         <v>-2</v>
@@ -4057,13 +4057,13 @@
         <v>111948</v>
       </c>
       <c r="B91" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D91" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E91">
         <v>61</v>
@@ -4101,13 +4101,13 @@
         <v>111966</v>
       </c>
       <c r="B92" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D92" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E92">
         <v>-2</v>
@@ -4124,13 +4124,13 @@
         <v>112075</v>
       </c>
       <c r="B93" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D93" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="E93">
         <v>68</v>
@@ -4150,13 +4150,13 @@
         <v>112260</v>
       </c>
       <c r="B94" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D94" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E94">
         <v>-2</v>
@@ -4194,13 +4194,13 @@
         <v>112394</v>
       </c>
       <c r="B95" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D95" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E95">
         <v>-2</v>
@@ -4220,13 +4220,13 @@
         <v>113582</v>
       </c>
       <c r="B96" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D96" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="E96">
         <v>-2</v>
@@ -4243,13 +4243,13 @@
         <v>113616</v>
       </c>
       <c r="B97" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D97" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="E97">
         <v>109</v>
@@ -4269,13 +4269,13 @@
         <v>113698</v>
       </c>
       <c r="B98" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D98" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="E98">
         <v>-2</v>
@@ -4313,13 +4313,13 @@
         <v>114354</v>
       </c>
       <c r="B99" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D99" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E99">
         <v>-2</v>
@@ -4336,13 +4336,13 @@
         <v>114813</v>
       </c>
       <c r="B100" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D100" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E100">
         <v>43</v>
@@ -4362,13 +4362,13 @@
         <v>115409</v>
       </c>
       <c r="B101" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D101" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="E101">
         <v>-2</v>
@@ -4403,5 +4403,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>